--- a/data/Meta Data.xlsx
+++ b/data/Meta Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talimass/Library/CloudStorage/GoogleDrive-cbp@marsci.haifa.ac.il/Shared drives/CSMS_CBP_MassLab/Arik_Attia/GitHub data example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cc6194312de3007/מסמכים/my_project_github/Oculina-regeneration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A01705-2BA1-6F41-9886-D8EBFBA4F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="8_{55A01705-2BA1-6F41-9886-D8EBFBA4F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB087CB-9A7C-474B-9612-A868BC9ABF49}"/>
   <bookViews>
-    <workbookView xWindow="37780" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{DC067386-E1BB-3842-83EF-CB60FB74EFAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC067386-E1BB-3842-83EF-CB60FB74EFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="37">
   <si>
     <t>Tube.ID</t>
   </si>
@@ -77,30 +77,93 @@
     <t>Haifa -80 shelf, box</t>
   </si>
   <si>
-    <t>Haifs…..</t>
-  </si>
-  <si>
     <t>Colony</t>
   </si>
   <si>
-    <t>T0_XXXX</t>
-  </si>
-  <si>
     <t>Oculina</t>
   </si>
   <si>
     <t>T0</t>
+  </si>
+  <si>
+    <t>ocu_1</t>
+  </si>
+  <si>
+    <t>14.12.2025</t>
+  </si>
+  <si>
+    <t>14.1.2026</t>
+  </si>
+  <si>
+    <t>ocu_4</t>
+  </si>
+  <si>
+    <t>ocu_5</t>
+  </si>
+  <si>
+    <t>T1/4</t>
+  </si>
+  <si>
+    <t>ocu_3</t>
+  </si>
+  <si>
+    <t>1.1.2026</t>
+  </si>
+  <si>
+    <t>16.12.2025</t>
+  </si>
+  <si>
+    <t>ocu_2</t>
+  </si>
+  <si>
+    <t>Tend</t>
+  </si>
+  <si>
+    <t>metabolomics</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>pam</t>
+  </si>
+  <si>
+    <t>spair</t>
+  </si>
+  <si>
+    <t>new_T0</t>
+  </si>
+  <si>
+    <t>frag_imege</t>
+  </si>
+  <si>
+    <t>20.11.2025</t>
+  </si>
+  <si>
+    <t>new_T1/2</t>
+  </si>
+  <si>
+    <t>T3/4</t>
+  </si>
+  <si>
+    <t>14.1.2027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,9 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,15 +526,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69F62CD-A6E7-5B41-B935-3EC9A2B35581}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.23046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -484,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -498,25 +569,31 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>46003</v>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -528,201 +605,1755 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>46003</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
       <c r="B17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
       <c r="B19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
       <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
       <c r="B21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
       <c r="B22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
       <c r="B23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
       <c r="B24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
       <c r="B25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
       <c r="B26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
       <c r="B27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
       <c r="B28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
       <c r="B29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
       <c r="B30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
       <c r="B31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
       <c r="B32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
       <c r="B33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
       <c r="B34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
       <c r="B35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
       <c r="B36">
         <v>35</v>
       </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>